--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454937.862473453</v>
+        <v>2445739.745887741</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492767</v>
+        <v>7709817.850552398</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9453837.670757096</v>
+        <v>9395622.330670862</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>227.9200462529333</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>82.13354828610755</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>247.9538715562876</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>144.3968844608067</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>32.2509097230727</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>368.8222990765455</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>115.4739444431199</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>66.55644223417524</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>75.29566674363716</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.33742371513297</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>40.49613765998044</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>33.02098857960674</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.2562405234787</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>62.26702939509423</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.71606764504763</v>
       </c>
       <c r="G25" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>76.94242247934774</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>222.5123088280278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>135.4334972246865</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>140.899376873759</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25.8965843185424</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3235,7 +3235,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>181.113391614101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.95897195038989</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.398536716038111</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7989719911874</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>52.74455946606857</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534558</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396183</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4189,19 +4189,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>81.73686178476166</v>
       </c>
       <c r="W46" t="n">
-        <v>234.34116227609</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1498.903216252386</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1113.114963654142</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>702.1290588645345</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>284.1652507627214</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1779.584617183057</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="C5" t="n">
-        <v>1779.584617183057</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="D5" t="n">
-        <v>1421.318918576307</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E5" t="n">
-        <v>1035.530665978062</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>968.0255763514234</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1599.743387334735</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520777</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.723949158869</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.723949158869</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.723949158869</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="X5" t="n">
-        <v>2169.723949158869</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="Y5" t="n">
-        <v>1779.584617183057</v>
+        <v>1705.721006799168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>390.8703919199697</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>221.9342089920628</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>582.2735453571344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>582.2735453571344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>582.2735453571344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>1021.300986791757</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>793.3114358937396</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>572.5188567502095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.84264846379</v>
+        <v>1993.538426829656</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.880131523378</v>
+        <v>1624.575909889244</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.880131523378</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374772</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2516.740328444775</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2627.474653694302</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782761</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527912</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527912</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.442488527912</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2072.442488527912</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>2072.442488527912</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>702.6555516296426</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317427</v>
+        <v>1010.074949674014</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988473</v>
+        <v>1388.175755327816</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1790.69240914896</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2136.696714185273</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2395.062607012007</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.390839373945</v>
+        <v>418.1782982600805</v>
       </c>
       <c r="C10" t="n">
-        <v>178.4546564460381</v>
+        <v>418.1782982600805</v>
       </c>
       <c r="D10" t="n">
-        <v>178.4546564460381</v>
+        <v>268.0616588477448</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460381</v>
+        <v>268.0616588477448</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460381</v>
+        <v>121.1717113498344</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460381</v>
+        <v>121.1717113498344</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460381</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159742</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="T10" t="n">
-        <v>977.8214342457322</v>
+        <v>1364.721000476698</v>
       </c>
       <c r="U10" t="n">
-        <v>977.8214342457322</v>
+        <v>1364.721000476698</v>
       </c>
       <c r="V10" t="n">
-        <v>977.8214342457322</v>
+        <v>1110.036512270811</v>
       </c>
       <c r="W10" t="n">
-        <v>977.8214342457322</v>
+        <v>820.6193422338504</v>
       </c>
       <c r="X10" t="n">
-        <v>749.8318833477149</v>
+        <v>820.6193422338504</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0393042041848</v>
+        <v>599.8267630903202</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,16 +5042,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5084,7 +5084,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3329.011433084685</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3831.983903964022</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4226.7582703212</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4685.236472830188</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.069814334827</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C16" t="n">
-        <v>637.1336314069201</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="D16" t="n">
-        <v>487.0169919945844</v>
+        <v>597.2761949092638</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.536432582261</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.851944376374</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.851944376374</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.862393478357</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.069814334827</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>845.0839474760701</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1296.118160724479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2274.668463554307</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.7198286198654</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>654.7198286198654</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1907.599788808261</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1715.913904635087</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.913904635087</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1426.81103776073</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1172.126549554843</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>882.7093795178828</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>654.7198286198654</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>654.7198286198654</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,16 +5735,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5756,10 +5756,10 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
         <v>2667.236715577531</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>749.5938910111498</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052697</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>1198.376021052697</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X22" t="n">
-        <v>970.38647015468</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>749.5938910111498</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3082.612567657322</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>3082.612567657322</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D25" t="n">
-        <v>3082.612567657322</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E25" t="n">
-        <v>3082.612567657322</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F25" t="n">
-        <v>3082.612567657322</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941717</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.81186773583</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>3531.394697698869</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>3303.405146800852</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>3082.612567657322</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.23671557753</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862918</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3647.567813692731</v>
+        <v>584.5263537034801</v>
       </c>
       <c r="C28" t="n">
-        <v>3478.631630764824</v>
+        <v>584.5263537034801</v>
       </c>
       <c r="D28" t="n">
-        <v>3328.514991352489</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.514991352489</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352489</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>4274.7687655736</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>4274.7687655736</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W28" t="n">
-        <v>4274.7687655736</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X28" t="n">
-        <v>4050.008857666501</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y28" t="n">
-        <v>3829.216278522971</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3376.441170176499</v>
+        <v>3495.091030974025</v>
       </c>
       <c r="C31" t="n">
-        <v>3207.504987248592</v>
+        <v>3495.091030974025</v>
       </c>
       <c r="D31" t="n">
-        <v>3207.504987248592</v>
+        <v>3358.289518625857</v>
       </c>
       <c r="E31" t="n">
-        <v>3059.591893666199</v>
+        <v>3210.376425043463</v>
       </c>
       <c r="F31" t="n">
-        <v>3059.591893666199</v>
+        <v>3063.486477545553</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545553</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816073</v>
+        <v>4556.285106989246</v>
       </c>
       <c r="U31" t="n">
-        <v>4075.496355941717</v>
+        <v>4267.182240114889</v>
       </c>
       <c r="V31" t="n">
-        <v>4075.496355941717</v>
+        <v>4012.497751909003</v>
       </c>
       <c r="W31" t="n">
-        <v>3786.079185904756</v>
+        <v>3723.080581872042</v>
       </c>
       <c r="X31" t="n">
-        <v>3558.089635006739</v>
+        <v>3495.091030974025</v>
       </c>
       <c r="Y31" t="n">
-        <v>3558.089635006739</v>
+        <v>3495.091030974025</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.23671557753</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789526</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.3303343661177</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C34" t="n">
-        <v>557.3941514382108</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382108</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>435.6392238341433</v>
       </c>
       <c r="F34" t="n">
         <v>409.4810578558177</v>
@@ -6883,25 +6883,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>726.3303343661177</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X34" t="n">
-        <v>726.3303343661177</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y34" t="n">
-        <v>726.3303343661177</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6950,37 +6950,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686433</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>975.382385219617</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>806.4462022917102</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>656.3295628793744</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7120,25 +7120,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>1157.030850049857</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,16 +7160,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7178,46 +7178,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903276</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.542498853856</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C40" t="n">
-        <v>710.6063159259492</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D40" t="n">
-        <v>560.4896765136134</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E40" t="n">
-        <v>412.5765829312203</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>265.6866354333099</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>97.98379880802887</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>1509.973093725643</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.983542827626</v>
+        <v>424.0994467765445</v>
       </c>
       <c r="Y40" t="n">
-        <v>1061.190963684096</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7594,25 +7594,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690179</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749767</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551645</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7643,55 +7643,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7731,7 +7731,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.9164446247779</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C46" t="n">
-        <v>490.9164446247779</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>340.7998052124422</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>192.886711630049</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7828,28 +7828,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1460.328479849782</v>
       </c>
       <c r="W46" t="n">
-        <v>672.5649094550176</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="X46" t="n">
-        <v>672.5649094550176</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y46" t="n">
-        <v>672.5649094550176</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>184.4918451070949</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,25 +8456,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.04072454780277</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517903</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478233</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>43.5682412621799</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>219.3344627260163</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.13957882093973</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>60.0189488469199</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,10 +9176,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.61882225792044</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>29.61882225792135</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>29.61882225792044</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.53663776704209</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>7.630896635343674</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>136.2499899971296</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>102.8529310510262</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.4945564668043</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.9378249865887</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>253.1908496260061</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.67591214656863</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>104.9797917035336</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.55208449419941</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>64.70498037788362</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335964134057207</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,10 +24412,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>71.67305053886462</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.197346561009397</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>13.18197579352582</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>25.1264313852692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,7 +24886,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>119.5244637043889</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>105.40960672249</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>47.47499069617928</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25360,22 +25360,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3564781982827</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>31.91068339784971</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>93.68940318050061</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25834,13 +25834,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26041,7 +26041,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>170.4007815390663</v>
       </c>
       <c r="W46" t="n">
-        <v>52.18183606050104</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>871379.0019000908</v>
+        <v>848988.0960875687</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848988.0960875687</v>
+        <v>809308.9262953203</v>
       </c>
     </row>
     <row r="5">
@@ -26314,31 +26314,31 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="F2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="H2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="J2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="L2" t="n">
         <v>615476.7696748235</v>
@@ -26353,7 +26353,7 @@
         <v>615476.7696748236</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748237</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481118</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165044</v>
+        <v>258331.9582431705</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404879</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289564</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084677</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26494,22 +26494,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244346.1398736219</v>
+        <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>345621.7393409221</v>
+        <v>176031.9627760588</v>
       </c>
       <c r="D6" t="n">
-        <v>189155.696984679</v>
+        <v>103865.5436930031</v>
       </c>
       <c r="E6" t="n">
-        <v>-62704.61829759135</v>
+        <v>232199.4538250434</v>
       </c>
       <c r="F6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="G6" t="n">
-        <v>491352.7093189138</v>
+        <v>490531.4120682144</v>
       </c>
       <c r="H6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="I6" t="n">
-        <v>491352.7093189132</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="J6" t="n">
-        <v>314929.4901263204</v>
+        <v>314108.1928756214</v>
       </c>
       <c r="K6" t="n">
-        <v>491352.7093189129</v>
+        <v>490531.4120682145</v>
       </c>
       <c r="L6" t="n">
-        <v>491352.7093189132</v>
+        <v>490531.4120682142</v>
       </c>
       <c r="M6" t="n">
-        <v>361710.3944799687</v>
+        <v>360889.0972292697</v>
       </c>
       <c r="N6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="O6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682142</v>
       </c>
       <c r="P6" t="n">
-        <v>491352.7093189135</v>
+        <v>490531.4120682144</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209786</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96.00272651142382</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>53.30008710312387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>324.7424974556039</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>121.7772291221814</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74865448921219</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>254.2720886135183</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13.91154258693507</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>266.4564256291418</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>80.25413076172863</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>148.0772379771215</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>325.2278611083608</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328948</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.37821951911096</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L9" t="n">
-        <v>212.6331008565871</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545554</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>167.6001207935508</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>727.3874636142355</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35498,7 +35498,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>93.75277736316451</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>397.2102354023204</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,10 +35896,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36124,13 +36124,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>581.9206576708319</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>581.9206576708319</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>318.3309425707616</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>559.9327320482552</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>535.0119762165015</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>501.6149172703981</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320855</v>
+        <v>2556260.460944782</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>168.5659324348786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>248.8850931379793</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>286.1092675407521</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>18.10156776673072</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>277.926674169072</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>57.45409716768557</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.66643877102</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>15.93450140722231</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
-        <v>13.03790159951732</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>74.20064764874429</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>179.8780801519789</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.3106907504113</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>34.45703212904674</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.852583904132</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.852583904132</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5868852973811</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.182375355301</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.182375355301</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.182375355301</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>907.3941227570563</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>496.4082179674487</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>915.8923501605202</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C8" t="n">
-        <v>915.8923501605202</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D8" t="n">
-        <v>915.8923501605202</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>900.3010802591311</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>489.3151754695236</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>72.22739370595104</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>72.22739370595104</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,13 +4810,13 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1038.481977701813</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1225.181390527221</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1852.489058587068</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2045.400177470568</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.631522200454</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1692.631522200454</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1302.492190224642</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1583.773684326505</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.5838873056357</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>865.365260415591</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>639.736063727956</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>350.5838873056357</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>350.5838873056357</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>350.5838873056357</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>350.5838873056357</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.5838873056357</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.365421478097</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.290194822295</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.605706616408</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.188536579448</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.19898568143</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452603</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811715</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>168.7668121881176</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6314,13 +6314,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3045.530642171613</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4509.138121942049</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4220.062895286247</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3965.37840708036</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3675.9612370434</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3447.971686145383</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3227.179107001853</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7836,16 +7836,16 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
         <v>974.1018203925706</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,16 +8458,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>255.6599272792059</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>339.1843734049999</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>240.7280987119431</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>132.68097161099</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
-        <v>273.1465727897268</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>7.065188669821239</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>37.52737017530936</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.3047822678011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.1584408891656</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380806</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>5.391791546571767e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682761</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,25 +26441,25 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682797</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961673</v>
+        <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183769</v>
+        <v>343525.8781183768</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245826</v>
+        <v>187722.0720245822</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116411</v>
+        <v>-252661.5222659983</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.5483691648</v>
+        <v>518391.169114808</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691651</v>
+        <v>518391.169114808</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.3291765722</v>
+        <v>341967.9499222148</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.5483691651</v>
+        <v>518391.1691148078</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611068</v>
+        <v>394182.6584067494</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.5483691648</v>
+        <v>518391.169114808</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.169114808</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>213.3644376373831</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>2.339074370310044</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.44405126592677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>191.5348083661494</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>127.6749024800429</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>100.3944731271596</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>49.82558430106292</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>147.9117847324331</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.003997547551987e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>242.232209776813</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154031</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>266.6561007250657</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,7 +33985,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>396.3959432804718</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35254,19 +35254,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>477.8001289764079</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>401.8516468622063</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410441</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>128.8146617507067</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556260.460944782</v>
+        <v>2558020.991247568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8850931379793</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>39.91569010595153</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.1482332545336</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>91.22205962245668</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>87.79723570473701</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.10156776673072</v>
+        <v>61.32905684098938</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.2860473850909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>41.1667312069662</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>399.5905718782843</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>230.5907716166167</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887292</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.349585887292</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2273.942709106514</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1921.174053836399</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1547.708295575319</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1157.568963599508</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.317548404538</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1644.355031464126</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.089332857375</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>900.3010802591311</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>489.3151754695236</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>72.22739370595104</v>
+        <v>115.8915240839901</v>
       </c>
       <c r="H8" t="n">
-        <v>72.22739370595104</v>
+        <v>115.8915240839901</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,19 +4810,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1038.481977701813</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>1491.354506998273</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4846,10 +4846,10 @@
         <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>975.0527656697138</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2106.86229816164</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2530.830066642476</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.0298983709613</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.4707033833035</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.4707033833035</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>536.4709423447312</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>315.678363201201</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,10 +5834,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6849,10 +6849,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,34 +7165,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7362,13 +7362,13 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
         <v>1191.213173842395</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7599,7 +7599,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,22 +8458,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>255.6599272792059</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>106.8604465378989</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>339.1843734049999</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>83.55659739084918</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
@@ -26337,16 +26337,16 @@
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26441,22 +26441,22 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26524,46 +26524,46 @@
         <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183768</v>
+        <v>343525.8781183769</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245822</v>
+        <v>187722.0720245823</v>
       </c>
       <c r="E6" t="n">
-        <v>-252661.5222659983</v>
+        <v>-252348.8809370773</v>
       </c>
       <c r="F6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437295</v>
       </c>
       <c r="G6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="H6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="I6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="J6" t="n">
-        <v>341967.9499222148</v>
+        <v>342280.5912511364</v>
       </c>
       <c r="K6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="L6" t="n">
-        <v>518391.1691148078</v>
+        <v>518703.8104437294</v>
       </c>
       <c r="M6" t="n">
-        <v>394182.6584067494</v>
+        <v>394495.2997356708</v>
       </c>
       <c r="N6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="O6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="P6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437292</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.339074370310044</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>96.44405126592677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.2551987358436</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>191.5348083661494</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>83.19365318651485</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>92.03474447720029</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>100.3944731271596</v>
+        <v>57.16698405290092</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353694</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>55.39417408902973</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>667.8124403339918</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,7 +34219,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>396.3959432804718</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>295.4457120181086</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>477.8001289764079</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>106.5232046655734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>525.6784064119735</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,7 +37867,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
